--- a/Proyectos POO 2025.xlsx
+++ b/Proyectos POO 2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitectec1-my.sharepoint.com/personal/gilberto_d_costachica_tecnm_mx/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilberto\Documents\GitHub\POO_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{7EDC571C-D324-43E3-9516-818C9415B4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{116F2183-3DF6-47FF-B298-53759D70BA40}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3115AC50-8EF8-462A-89EF-190E06B7B472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4A62EAD-F552-46F3-BE5C-14EED4255616}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Semestre</t>
   </si>
@@ -138,14 +138,33 @@
   </si>
   <si>
     <t>Equipo 2</t>
+  </si>
+  <si>
+    <t>N°</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -161,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -169,23 +188,272 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -196,6 +464,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35EF7232-B945-4525-B80D-B8A2A5B89283}" name="Tabla1" displayName="Tabla1" ref="B3:E13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="6">
+  <autoFilter ref="B3:E13" xr:uid="{35EF7232-B945-4525-B80D-B8A2A5B89283}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7EED4A05-4581-41EA-A964-8CB2074D57A5}" name="N°" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{DBAF3429-59E3-4A14-A125-BC8731C4BDF1}" name="PROYECTO" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F923F436-81DF-4566-BB20-281E9FE7E904}" name="Equipo 1" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{475919BC-D2C6-4A43-8124-E498F28BC9C5}" name="Equipo 2" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,184 +796,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41966E8-F861-4D88-B63A-06742065C879}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="G13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I13" s="2" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Proyectos POO 2025.xlsx
+++ b/Proyectos POO 2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilberto\Documents\GitHub\POO_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilbe\OneDrive\Documentos\GitHub\POO_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3115AC50-8EF8-462A-89EF-190E06B7B472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC8069A-7FD5-4EF7-8F76-8166DA57325F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4A62EAD-F552-46F3-BE5C-14EED4255616}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D4A62EAD-F552-46F3-BE5C-14EED4255616}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Semestre</t>
   </si>
@@ -141,6 +141,42 @@
   </si>
   <si>
     <t>N°</t>
+  </si>
+  <si>
+    <t>Nemias - Yiuliana</t>
+  </si>
+  <si>
+    <t>Jocelin - Juan Pablo</t>
+  </si>
+  <si>
+    <t>Stephany - Carla Y.</t>
+  </si>
+  <si>
+    <t>Ian - Angeles</t>
+  </si>
+  <si>
+    <t>Jhonatan - Matilde</t>
+  </si>
+  <si>
+    <t>Julia - Anabel</t>
+  </si>
+  <si>
+    <t>America - Itiel</t>
+  </si>
+  <si>
+    <t>Karla I. - Germain</t>
+  </si>
+  <si>
+    <t>Edson - Diego</t>
+  </si>
+  <si>
+    <t>Luis - Yolanda</t>
+  </si>
+  <si>
+    <t>Yadira - Isabel</t>
+  </si>
+  <si>
+    <t>Kevin - Daniel</t>
   </si>
 </sst>
 </file>
@@ -328,71 +364,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -447,10 +459,33 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -467,13 +502,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35EF7232-B945-4525-B80D-B8A2A5B89283}" name="Tabla1" displayName="Tabla1" ref="B3:E13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35EF7232-B945-4525-B80D-B8A2A5B89283}" name="Tabla1" displayName="Tabla1" ref="B3:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5">
   <autoFilter ref="B3:E13" xr:uid="{35EF7232-B945-4525-B80D-B8A2A5B89283}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7EED4A05-4581-41EA-A964-8CB2074D57A5}" name="N°" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{DBAF3429-59E3-4A14-A125-BC8731C4BDF1}" name="PROYECTO" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F923F436-81DF-4566-BB20-281E9FE7E904}" name="Equipo 1" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{475919BC-D2C6-4A43-8124-E498F28BC9C5}" name="Equipo 2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7EED4A05-4581-41EA-A964-8CB2074D57A5}" name="N°" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{DBAF3429-59E3-4A14-A125-BC8731C4BDF1}" name="PROYECTO" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F923F436-81DF-4566-BB20-281E9FE7E904}" name="Equipo 1" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{475919BC-D2C6-4A43-8124-E498F28BC9C5}" name="Equipo 2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -798,214 +833,236 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41966E8-F861-4D88-B63A-06742065C879}">
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="4.36328125" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" customWidth="1"/>
+    <col min="8" max="8" width="2" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="G4" s="10" t="s">
+      <c r="D4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="11">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="G5" s="2" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="G5" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="2" t="s">
+      <c r="D6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="G7" s="2" t="s">
+      <c r="D7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="2" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="G8" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="10">
         <v>6</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="2" t="s">
+      <c r="D9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="10">
         <v>7</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="2" t="s">
+      <c r="D10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="10">
         <v>8</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="G11" s="2" t="s">
+      <c r="D11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="10">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="2" t="s">
+      <c r="D12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="14">
+    <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="13">
         <v>10</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="G13" s="2" t="s">
+      <c r="D13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="17"/>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C15" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Proyectos POO 2025.xlsx
+++ b/Proyectos POO 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilbe\OneDrive\Documentos\GitHub\POO_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC8069A-7FD5-4EF7-8F76-8166DA57325F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D7685D-5D75-416B-9850-C316A236BC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D4A62EAD-F552-46F3-BE5C-14EED4255616}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Semestre</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Precio</t>
   </si>
   <si>
-    <t>niño</t>
-  </si>
-  <si>
     <t>Edad</t>
   </si>
   <si>
@@ -177,6 +174,15 @@
   </si>
   <si>
     <t>Kevin - Daniel</t>
+  </si>
+  <si>
+    <t>Miguel Angel - Eliseo</t>
+  </si>
+  <si>
+    <t>Niño</t>
+  </si>
+  <si>
+    <t>Kevin - Aurelio</t>
   </si>
 </sst>
 </file>
@@ -833,16 +839,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41966E8-F861-4D88-B63A-06742065C879}">
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
     <col min="6" max="6" width="4.36328125" customWidth="1"/>
     <col min="7" max="7" width="11.08984375" customWidth="1"/>
     <col min="8" max="8" width="2" customWidth="1"/>
@@ -856,24 +862,24 @@
     </row>
     <row r="3" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
@@ -881,13 +887,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>1</v>
@@ -902,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
@@ -918,10 +924,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="12"/>
       <c r="G6" t="s">
@@ -936,10 +942,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="12"/>
       <c r="G7" t="s">
@@ -954,9 +960,11 @@
         <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="G8" t="s">
         <v>8</v>
@@ -970,13 +978,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -990,10 +998,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="12"/>
       <c r="G10" t="s">
@@ -1008,13 +1016,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1028,17 +1036,19 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1046,19 +1056,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
         <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
